--- a/document/Variables Problem Set3.xlsx
+++ b/document/Variables Problem Set3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Output R\Problem_Set3\Taller_3\document\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0928F153-F218-44F6-B68C-7DE50CFA950B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2B0D9AA-14AB-4FDF-957D-C7D8AA977859}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{F8E9F184-94BF-4EAA-8929-623F6B4CE331}"/>
   </bookViews>
@@ -16,6 +16,7 @@
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -421,7 +422,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -429,19 +430,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -471,13 +463,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -487,13 +472,22 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -521,8 +515,8 @@
       <xdr:rowOff>42862</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="196977" cy="184731"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="2" name="CuadroTexto 1">
@@ -564,6 +558,7 @@
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
+              <a:pPr/>
               <a14:m>
                 <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
                   <m:oMathParaPr>
@@ -611,7 +606,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="2" name="CuadroTexto 1">
@@ -699,8 +694,8 @@
       <xdr:rowOff>33337</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="196977" cy="184731"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="3" name="CuadroTexto 2">
@@ -742,6 +737,7 @@
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
+              <a:pPr/>
               <a14:m>
                 <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
                   <m:oMathParaPr>
@@ -789,7 +785,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="3" name="CuadroTexto 2">
@@ -877,8 +873,8 @@
       <xdr:rowOff>71437</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="196977" cy="185115"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="4" name="CuadroTexto 3">
@@ -920,6 +916,7 @@
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
+              <a:pPr/>
               <a14:m>
                 <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
                   <m:oMathParaPr>
@@ -967,7 +964,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="4" name="CuadroTexto 3">
@@ -1055,8 +1052,8 @@
       <xdr:rowOff>71437</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="196977" cy="187615"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="5" name="CuadroTexto 4">
@@ -1098,6 +1095,7 @@
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
+              <a:pPr/>
               <a14:m>
                 <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
                   <m:oMathParaPr>
@@ -1145,7 +1143,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="5" name="CuadroTexto 4">
@@ -1233,8 +1231,8 @@
       <xdr:rowOff>61912</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="196977" cy="185115"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="6" name="CuadroTexto 5">
@@ -1276,6 +1274,7 @@
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
+              <a:pPr/>
               <a14:m>
                 <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
                   <m:oMathParaPr>
@@ -1323,7 +1322,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="6" name="CuadroTexto 5">
@@ -1411,8 +1410,8 @@
       <xdr:rowOff>119062</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="196977" cy="183961"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="7" name="CuadroTexto 6">
@@ -1454,6 +1453,7 @@
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
+              <a:pPr/>
               <a14:m>
                 <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
                   <m:oMathParaPr>
@@ -1501,7 +1501,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="7" name="CuadroTexto 6">
@@ -1589,8 +1589,8 @@
       <xdr:rowOff>14287</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="196977" cy="185115"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="8" name="CuadroTexto 7">
@@ -1632,6 +1632,7 @@
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
+              <a:pPr/>
               <a14:m>
                 <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
                   <m:oMathParaPr>
@@ -1679,7 +1680,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="8" name="CuadroTexto 7">
@@ -1767,8 +1768,8 @@
       <xdr:rowOff>33337</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="196977" cy="185115"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="9" name="CuadroTexto 8">
@@ -1810,6 +1811,7 @@
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
+              <a:pPr/>
               <a14:m>
                 <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
                   <m:oMathParaPr>
@@ -1857,7 +1859,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="9" name="CuadroTexto 8">
@@ -1945,8 +1947,8 @@
       <xdr:rowOff>90487</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="258597" cy="185115"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="10" name="CuadroTexto 9">
@@ -1988,6 +1990,7 @@
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
+              <a:pPr/>
               <a14:m>
                 <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
                   <m:oMathParaPr>
@@ -2035,7 +2038,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="10" name="CuadroTexto 9">
@@ -2123,8 +2126,8 @@
       <xdr:rowOff>119062</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="258597" cy="184731"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="11" name="CuadroTexto 10">
@@ -2166,6 +2169,7 @@
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
+              <a:pPr/>
               <a14:m>
                 <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
                   <m:oMathParaPr>
@@ -2213,7 +2217,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="11" name="CuadroTexto 10">
@@ -2301,8 +2305,8 @@
       <xdr:rowOff>42862</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="258597" cy="184731"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="12" name="CuadroTexto 11">
@@ -2344,6 +2348,7 @@
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
+              <a:pPr/>
               <a14:m>
                 <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
                   <m:oMathParaPr>
@@ -2391,7 +2396,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="12" name="CuadroTexto 11">
@@ -2479,8 +2484,8 @@
       <xdr:rowOff>109537</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="258597" cy="185115"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="13" name="CuadroTexto 12">
@@ -2522,6 +2527,7 @@
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
+              <a:pPr/>
               <a14:m>
                 <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
                   <m:oMathParaPr>
@@ -2569,7 +2575,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="13" name="CuadroTexto 12">
@@ -2657,8 +2663,8 @@
       <xdr:rowOff>71437</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="196977" cy="184281"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="14" name="CuadroTexto 13">
@@ -2700,6 +2706,7 @@
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
+              <a:pPr/>
               <a14:m>
                 <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
                   <m:oMathParaPr>
@@ -2747,7 +2754,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="14" name="CuadroTexto 13">
@@ -2835,8 +2842,8 @@
       <xdr:rowOff>90487</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="333375" cy="184731"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="15" name="CuadroTexto 14">
@@ -2878,6 +2885,7 @@
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
+              <a:pPr/>
               <a14:m>
                 <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
                   <m:oMathParaPr>
@@ -2925,7 +2933,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="15" name="CuadroTexto 14">
@@ -3013,8 +3021,8 @@
       <xdr:rowOff>23812</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="258597" cy="187615"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="16" name="CuadroTexto 15">
@@ -3056,6 +3064,7 @@
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
+              <a:pPr/>
               <a14:m>
                 <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
                   <m:oMathParaPr>
@@ -3103,7 +3112,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="16" name="CuadroTexto 15">
@@ -3191,8 +3200,8 @@
       <xdr:rowOff>23812</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="258597" cy="185115"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="17" name="CuadroTexto 16">
@@ -3234,6 +3243,7 @@
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
+              <a:pPr/>
               <a14:m>
                 <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
                   <m:oMathParaPr>
@@ -3281,7 +3291,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="17" name="CuadroTexto 16">
@@ -3369,8 +3379,8 @@
       <xdr:rowOff>80962</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="258597" cy="184794"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="18" name="CuadroTexto 17">
@@ -3412,6 +3422,7 @@
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
+              <a:pPr/>
               <a14:m>
                 <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
                   <m:oMathParaPr>
@@ -3459,7 +3470,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="18" name="CuadroTexto 17">
@@ -3547,8 +3558,8 @@
       <xdr:rowOff>42862</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="258597" cy="185115"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="19" name="CuadroTexto 18">
@@ -3590,6 +3601,7 @@
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
+              <a:pPr/>
               <a14:m>
                 <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
                   <m:oMathParaPr>
@@ -3637,7 +3649,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="19" name="CuadroTexto 18">
@@ -3725,8 +3737,8 @@
       <xdr:rowOff>61912</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="258597" cy="185115"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="20" name="CuadroTexto 19">
@@ -3768,6 +3780,7 @@
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
+              <a:pPr/>
               <a14:m>
                 <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
                   <m:oMathParaPr>
@@ -3815,7 +3828,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="20" name="CuadroTexto 19">
@@ -3903,8 +3916,8 @@
       <xdr:rowOff>80962</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="258597" cy="185115"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="21" name="CuadroTexto 20">
@@ -3946,6 +3959,7 @@
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
+              <a:pPr/>
               <a14:m>
                 <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
                   <m:oMathParaPr>
@@ -3993,7 +4007,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="21" name="CuadroTexto 20">
@@ -4081,8 +4095,8 @@
       <xdr:rowOff>42862</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="258597" cy="184731"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="22" name="CuadroTexto 21">
@@ -4124,6 +4138,7 @@
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
+              <a:pPr/>
               <a14:m>
                 <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
                   <m:oMathParaPr>
@@ -4171,7 +4186,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="22" name="CuadroTexto 21">
@@ -4553,8 +4568,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B29E34C-EB63-4D34-B4C1-6910CE8CFD74}">
   <dimension ref="B1:D23"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4567,172 +4582,170 @@
   <sheetData>
     <row r="1" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:4" ht="25.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="25" t="s">
+      <c r="B2" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="26" t="s">
+      <c r="C2" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="25" t="s">
+      <c r="D2" s="19" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="3" spans="2:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="20" t="s">
+      <c r="C3" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="24"/>
+      <c r="D3" s="18"/>
     </row>
     <row r="4" spans="2:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="4"/>
-      <c r="C4" s="5" t="s">
+      <c r="B4" s="24"/>
+      <c r="C4" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="6"/>
+      <c r="D4" s="4"/>
     </row>
     <row r="5" spans="2:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="4"/>
-      <c r="C5" s="5" t="s">
+      <c r="B5" s="24"/>
+      <c r="C5" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="6"/>
+      <c r="D5" s="4"/>
     </row>
     <row r="6" spans="2:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="4"/>
-      <c r="C6" s="5" t="s">
+      <c r="B6" s="24"/>
+      <c r="C6" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="D6" s="6"/>
+      <c r="D6" s="4"/>
     </row>
     <row r="7" spans="2:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="4"/>
-      <c r="C7" s="5" t="s">
+      <c r="B7" s="24"/>
+      <c r="C7" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D7" s="6"/>
+      <c r="D7" s="4"/>
     </row>
     <row r="8" spans="2:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="7"/>
+      <c r="B8" s="25"/>
       <c r="C8" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D8" s="23"/>
     </row>
     <row r="9" spans="2:4" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="3" t="s">
+      <c r="B9" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="10" t="s">
+      <c r="C9" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="D9" s="11"/>
+      <c r="D9" s="8"/>
     </row>
     <row r="10" spans="2:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="4"/>
-      <c r="C10" s="5" t="s">
+      <c r="B10" s="24"/>
+      <c r="C10" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D10" s="6"/>
+      <c r="D10" s="4"/>
     </row>
     <row r="11" spans="2:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="4"/>
-      <c r="C11" s="12" t="s">
+      <c r="B11" s="24"/>
+      <c r="C11" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="D11" s="13"/>
+      <c r="D11" s="10"/>
     </row>
     <row r="12" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="4"/>
-      <c r="C12" s="14" t="s">
+      <c r="B12" s="24"/>
+      <c r="C12" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="D12" s="6"/>
+      <c r="D12" s="4"/>
     </row>
     <row r="13" spans="2:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="B13" s="7"/>
-      <c r="C13" s="15" t="s">
+      <c r="B13" s="25"/>
+      <c r="C13" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="D13" s="9"/>
+      <c r="D13" s="6"/>
     </row>
     <row r="14" spans="2:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="3" t="s">
+      <c r="B14" s="23" t="s">
         <v>13</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D14" s="11"/>
+      <c r="D14" s="8"/>
     </row>
     <row r="15" spans="2:4" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="4"/>
-      <c r="C15" s="16" t="s">
+      <c r="B15" s="24"/>
+      <c r="C15" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="D15" s="17"/>
+      <c r="D15" s="14"/>
     </row>
     <row r="16" spans="2:4" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="7"/>
-      <c r="C16" s="18" t="s">
+      <c r="B16" s="25"/>
+      <c r="C16" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="D16" s="19"/>
+      <c r="D16" s="16"/>
     </row>
     <row r="17" spans="2:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="3" t="s">
+      <c r="B17" s="23" t="s">
         <v>19</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="D17" s="11"/>
+      <c r="D17" s="8"/>
     </row>
     <row r="18" spans="2:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="4"/>
-      <c r="C18" s="20" t="s">
+      <c r="B18" s="24"/>
+      <c r="C18" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="D18" s="17"/>
+      <c r="D18" s="14"/>
     </row>
     <row r="19" spans="2:4" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="4"/>
-      <c r="C19" s="5" t="s">
+      <c r="B19" s="24"/>
+      <c r="C19" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D19" s="6"/>
+      <c r="D19" s="4"/>
     </row>
     <row r="20" spans="2:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="7"/>
-      <c r="C20" s="8" t="s">
+      <c r="B20" s="25"/>
+      <c r="C20" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="D20" s="9"/>
+      <c r="D20" s="6"/>
     </row>
     <row r="21" spans="2:4" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="3" t="s">
+      <c r="B21" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="C21" s="22" t="s">
+      <c r="C21" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D21" s="11"/>
+      <c r="D21" s="8"/>
     </row>
     <row r="22" spans="2:4" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="4"/>
-      <c r="C22" s="21" t="s">
+      <c r="B22" s="24"/>
+      <c r="C22" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D22" s="23"/>
     </row>
     <row r="23" spans="2:4" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="27"/>
-      <c r="C23" s="28" t="s">
+      <c r="B23" s="26"/>
+      <c r="C23" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="D23" s="29"/>
+      <c r="D23" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="5">

--- a/document/Variables Problem Set3.xlsx
+++ b/document/Variables Problem Set3.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Output R\Problem_Set3\Taller_3\document\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2B0D9AA-14AB-4FDF-957D-C7D8AA977859}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B4CCC18-789A-4A11-B5D1-A337CE1005BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{F8E9F184-94BF-4EAA-8929-623F6B4CE331}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="1" xr2:uid="{F8E9F184-94BF-4EAA-8929-623F6B4CE331}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
+    <sheet name="Accuracy" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="47">
   <si>
     <t>Dimensiones</t>
   </si>
@@ -125,6 +125,60 @@
   <si>
     <t>Estrato</t>
   </si>
+  <si>
+    <t>Accuracy</t>
+  </si>
+  <si>
+    <t>Logit1</t>
+  </si>
+  <si>
+    <t>Logit3</t>
+  </si>
+  <si>
+    <t>Logit4</t>
+  </si>
+  <si>
+    <t>Logit5</t>
+  </si>
+  <si>
+    <t>Logit6</t>
+  </si>
+  <si>
+    <t>Logit_EN</t>
+  </si>
+  <si>
+    <t>Logit_Ridge</t>
+  </si>
+  <si>
+    <t>Logit_Lasso</t>
+  </si>
+  <si>
+    <t>Modelo</t>
+  </si>
+  <si>
+    <t>Valor</t>
+  </si>
+  <si>
+    <t>Métrica</t>
+  </si>
+  <si>
+    <t>No.</t>
+  </si>
+  <si>
+    <t>Logit2</t>
+  </si>
+  <si>
+    <t>Variable Ingreso</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Base de datos </t>
+  </si>
+  <si>
+    <t>Ingreso Total Hogar</t>
+  </si>
+  <si>
+    <t>Ingreso per cápita Hogar</t>
+  </si>
 </sst>
 </file>
 
@@ -156,12 +210,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.79998168889431442"/>
+        <fgColor theme="2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="22">
+  <borders count="35">
     <border>
       <left/>
       <right/>
@@ -418,11 +472,186 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="dashed">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="dashed">
+        <color auto="1"/>
+      </left>
+      <right style="dashed">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="dashed">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="dashed">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="dashed">
+        <color auto="1"/>
+      </left>
+      <right style="dashed">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="dashed">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="dashed">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="dashed">
+        <color auto="1"/>
+      </left>
+      <right style="dashed">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="dashed">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="dashed">
+        <color auto="1"/>
+      </left>
+      <right style="dashed">
+        <color auto="1"/>
+      </right>
+      <top style="double">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="dashed">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="double">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="dashed">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="dashed">
+        <color auto="1"/>
+      </left>
+      <right style="dashed">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -466,12 +695,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -487,6 +710,78 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -4568,8 +4863,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B29E34C-EB63-4D34-B4C1-6910CE8CFD74}">
   <dimension ref="B1:D23"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+    <sheetView showGridLines="0" topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4582,18 +4877,18 @@
   <sheetData>
     <row r="1" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:4" ht="25.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="19" t="s">
+      <c r="B2" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="20" t="s">
+      <c r="C2" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="19" t="s">
+      <c r="D2" s="26" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="3" spans="2:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="24" t="s">
+      <c r="B3" s="22" t="s">
         <v>3</v>
       </c>
       <c r="C3" s="17" t="s">
@@ -4602,41 +4897,41 @@
       <c r="D3" s="18"/>
     </row>
     <row r="4" spans="2:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="24"/>
+      <c r="B4" s="22"/>
       <c r="C4" s="3" t="s">
         <v>5</v>
       </c>
       <c r="D4" s="4"/>
     </row>
     <row r="5" spans="2:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="24"/>
+      <c r="B5" s="22"/>
       <c r="C5" s="3" t="s">
         <v>6</v>
       </c>
       <c r="D5" s="4"/>
     </row>
     <row r="6" spans="2:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="24"/>
+      <c r="B6" s="22"/>
       <c r="C6" s="3" t="s">
         <v>18</v>
       </c>
       <c r="D6" s="4"/>
     </row>
     <row r="7" spans="2:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="24"/>
+      <c r="B7" s="22"/>
       <c r="C7" s="3" t="s">
         <v>17</v>
       </c>
       <c r="D7" s="4"/>
     </row>
     <row r="8" spans="2:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="25"/>
+      <c r="B8" s="23"/>
       <c r="C8" s="1" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="9" spans="2:4" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="23" t="s">
+      <c r="B9" s="21" t="s">
         <v>7</v>
       </c>
       <c r="C9" s="7" t="s">
@@ -4645,35 +4940,35 @@
       <c r="D9" s="8"/>
     </row>
     <row r="10" spans="2:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="24"/>
+      <c r="B10" s="22"/>
       <c r="C10" s="3" t="s">
         <v>9</v>
       </c>
       <c r="D10" s="4"/>
     </row>
     <row r="11" spans="2:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="24"/>
+      <c r="B11" s="22"/>
       <c r="C11" s="9" t="s">
         <v>10</v>
       </c>
       <c r="D11" s="10"/>
     </row>
     <row r="12" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="24"/>
+      <c r="B12" s="22"/>
       <c r="C12" s="11" t="s">
         <v>11</v>
       </c>
       <c r="D12" s="4"/>
     </row>
     <row r="13" spans="2:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="B13" s="25"/>
+      <c r="B13" s="23"/>
       <c r="C13" s="12" t="s">
         <v>12</v>
       </c>
       <c r="D13" s="6"/>
     </row>
     <row r="14" spans="2:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="23" t="s">
+      <c r="B14" s="21" t="s">
         <v>13</v>
       </c>
       <c r="C14" s="2" t="s">
@@ -4682,21 +4977,21 @@
       <c r="D14" s="8"/>
     </row>
     <row r="15" spans="2:4" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="24"/>
+      <c r="B15" s="22"/>
       <c r="C15" s="13" t="s">
         <v>15</v>
       </c>
       <c r="D15" s="14"/>
     </row>
     <row r="16" spans="2:4" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="25"/>
+      <c r="B16" s="23"/>
       <c r="C16" s="15" t="s">
         <v>16</v>
       </c>
       <c r="D16" s="16"/>
     </row>
     <row r="17" spans="2:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="23" t="s">
+      <c r="B17" s="21" t="s">
         <v>19</v>
       </c>
       <c r="C17" s="2" t="s">
@@ -4705,28 +5000,28 @@
       <c r="D17" s="8"/>
     </row>
     <row r="18" spans="2:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="24"/>
+      <c r="B18" s="22"/>
       <c r="C18" s="17" t="s">
         <v>21</v>
       </c>
       <c r="D18" s="14"/>
     </row>
     <row r="19" spans="2:4" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="24"/>
+      <c r="B19" s="22"/>
       <c r="C19" s="3" t="s">
         <v>22</v>
       </c>
       <c r="D19" s="4"/>
     </row>
     <row r="20" spans="2:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="25"/>
+      <c r="B20" s="23"/>
       <c r="C20" s="5" t="s">
         <v>23</v>
       </c>
       <c r="D20" s="6"/>
     </row>
     <row r="21" spans="2:4" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="23" t="s">
+      <c r="B21" s="21" t="s">
         <v>24</v>
       </c>
       <c r="C21" s="2" t="s">
@@ -4735,17 +5030,17 @@
       <c r="D21" s="8"/>
     </row>
     <row r="22" spans="2:4" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="24"/>
+      <c r="B22" s="22"/>
       <c r="C22" s="1" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="23" spans="2:4" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="26"/>
-      <c r="C23" s="21" t="s">
+      <c r="B23" s="24"/>
+      <c r="C23" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="D23" s="22"/>
+      <c r="D23" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -4758,4 +5053,226 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39C00931-4D49-41FF-A219-83747CD8F8E4}">
+  <dimension ref="B1:G11"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="4" width="11.42578125" style="28"/>
+    <col min="5" max="5" width="15.28515625" style="28" customWidth="1"/>
+    <col min="6" max="6" width="26.28515625" customWidth="1"/>
+    <col min="7" max="7" width="13.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:7" ht="32.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="29" t="s">
+        <v>41</v>
+      </c>
+      <c r="C2" s="30" t="s">
+        <v>40</v>
+      </c>
+      <c r="D2" s="30" t="s">
+        <v>39</v>
+      </c>
+      <c r="E2" s="29" t="s">
+        <v>38</v>
+      </c>
+      <c r="F2" s="31" t="s">
+        <v>43</v>
+      </c>
+      <c r="G2" s="31" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="3" spans="2:7" s="25" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="32">
+        <v>1</v>
+      </c>
+      <c r="C3" s="33" t="s">
+        <v>29</v>
+      </c>
+      <c r="D3" s="33">
+        <v>0.92500000000000004</v>
+      </c>
+      <c r="E3" s="34" t="s">
+        <v>30</v>
+      </c>
+      <c r="F3" s="35" t="s">
+        <v>45</v>
+      </c>
+      <c r="G3" s="34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="2:7" s="25" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="39">
+        <v>2</v>
+      </c>
+      <c r="C4" s="40" t="s">
+        <v>29</v>
+      </c>
+      <c r="D4" s="40">
+        <v>0.95499999999999996</v>
+      </c>
+      <c r="E4" s="41" t="s">
+        <v>42</v>
+      </c>
+      <c r="F4" s="37" t="s">
+        <v>46</v>
+      </c>
+      <c r="G4" s="41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7" s="25" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="39">
+        <v>3</v>
+      </c>
+      <c r="C5" s="40" t="s">
+        <v>29</v>
+      </c>
+      <c r="D5" s="40">
+        <v>0.93700000000000006</v>
+      </c>
+      <c r="E5" s="41" t="s">
+        <v>31</v>
+      </c>
+      <c r="F5" s="36" t="s">
+        <v>45</v>
+      </c>
+      <c r="G5" s="41">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7" s="25" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="42">
+        <v>4</v>
+      </c>
+      <c r="C6" s="43" t="s">
+        <v>29</v>
+      </c>
+      <c r="D6" s="43">
+        <v>0.96399999999999997</v>
+      </c>
+      <c r="E6" s="44" t="s">
+        <v>32</v>
+      </c>
+      <c r="F6" s="48" t="s">
+        <v>46</v>
+      </c>
+      <c r="G6" s="44">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="2:7" s="25" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="39">
+        <v>5</v>
+      </c>
+      <c r="C7" s="40" t="s">
+        <v>29</v>
+      </c>
+      <c r="D7" s="40">
+        <v>0.92900000000000005</v>
+      </c>
+      <c r="E7" s="41" t="s">
+        <v>33</v>
+      </c>
+      <c r="F7" s="36" t="s">
+        <v>45</v>
+      </c>
+      <c r="G7" s="41">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="2:7" s="25" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="39">
+        <v>6</v>
+      </c>
+      <c r="C8" s="40" t="s">
+        <v>29</v>
+      </c>
+      <c r="D8" s="40">
+        <v>0.95599999999999996</v>
+      </c>
+      <c r="E8" s="41" t="s">
+        <v>34</v>
+      </c>
+      <c r="F8" s="37" t="s">
+        <v>46</v>
+      </c>
+      <c r="G8" s="41">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="2:7" s="25" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="39">
+        <v>7</v>
+      </c>
+      <c r="C9" s="40" t="s">
+        <v>29</v>
+      </c>
+      <c r="D9" s="40">
+        <v>0.96199999999999997</v>
+      </c>
+      <c r="E9" s="41" t="s">
+        <v>35</v>
+      </c>
+      <c r="F9" s="37" t="s">
+        <v>46</v>
+      </c>
+      <c r="G9" s="41">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="2:7" s="25" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="39">
+        <v>8</v>
+      </c>
+      <c r="C10" s="40" t="s">
+        <v>29</v>
+      </c>
+      <c r="D10" s="40">
+        <v>0.875</v>
+      </c>
+      <c r="E10" s="41" t="s">
+        <v>36</v>
+      </c>
+      <c r="F10" s="37" t="s">
+        <v>46</v>
+      </c>
+      <c r="G10" s="41">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="2:7" s="25" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="45">
+        <v>9</v>
+      </c>
+      <c r="C11" s="46" t="s">
+        <v>29</v>
+      </c>
+      <c r="D11" s="46">
+        <v>0.96199999999999997</v>
+      </c>
+      <c r="E11" s="47" t="s">
+        <v>37</v>
+      </c>
+      <c r="F11" s="38" t="s">
+        <v>46</v>
+      </c>
+      <c r="G11" s="47">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/document/Variables Problem Set3.xlsx
+++ b/document/Variables Problem Set3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Output R\Problem_Set3\Taller_3\document\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B4CCC18-789A-4A11-B5D1-A337CE1005BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CB4466F-C8BC-442F-91BA-1D1E76520295}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="1" xr2:uid="{F8E9F184-94BF-4EAA-8929-623F6B4CE331}"/>
   </bookViews>
@@ -651,7 +651,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -699,32 +699,17 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -782,6 +767,18 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -4863,7 +4860,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B29E34C-EB63-4D34-B4C1-6910CE8CFD74}">
   <dimension ref="B1:D23"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A14" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
@@ -4877,18 +4874,18 @@
   <sheetData>
     <row r="1" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:4" ht="25.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="26" t="s">
+      <c r="B2" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="27" t="s">
+      <c r="C2" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="26" t="s">
+      <c r="D2" s="22" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="3" spans="2:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="22" t="s">
+      <c r="B3" s="45" t="s">
         <v>3</v>
       </c>
       <c r="C3" s="17" t="s">
@@ -4897,41 +4894,41 @@
       <c r="D3" s="18"/>
     </row>
     <row r="4" spans="2:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="22"/>
+      <c r="B4" s="45"/>
       <c r="C4" s="3" t="s">
         <v>5</v>
       </c>
       <c r="D4" s="4"/>
     </row>
     <row r="5" spans="2:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="22"/>
+      <c r="B5" s="45"/>
       <c r="C5" s="3" t="s">
         <v>6</v>
       </c>
       <c r="D5" s="4"/>
     </row>
     <row r="6" spans="2:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="22"/>
+      <c r="B6" s="45"/>
       <c r="C6" s="3" t="s">
         <v>18</v>
       </c>
       <c r="D6" s="4"/>
     </row>
     <row r="7" spans="2:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="22"/>
+      <c r="B7" s="45"/>
       <c r="C7" s="3" t="s">
         <v>17</v>
       </c>
       <c r="D7" s="4"/>
     </row>
     <row r="8" spans="2:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="23"/>
+      <c r="B8" s="46"/>
       <c r="C8" s="1" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="9" spans="2:4" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="21" t="s">
+      <c r="B9" s="44" t="s">
         <v>7</v>
       </c>
       <c r="C9" s="7" t="s">
@@ -4940,35 +4937,35 @@
       <c r="D9" s="8"/>
     </row>
     <row r="10" spans="2:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="22"/>
+      <c r="B10" s="45"/>
       <c r="C10" s="3" t="s">
         <v>9</v>
       </c>
       <c r="D10" s="4"/>
     </row>
     <row r="11" spans="2:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="22"/>
+      <c r="B11" s="45"/>
       <c r="C11" s="9" t="s">
         <v>10</v>
       </c>
       <c r="D11" s="10"/>
     </row>
     <row r="12" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="22"/>
+      <c r="B12" s="45"/>
       <c r="C12" s="11" t="s">
         <v>11</v>
       </c>
       <c r="D12" s="4"/>
     </row>
     <row r="13" spans="2:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="B13" s="23"/>
+      <c r="B13" s="46"/>
       <c r="C13" s="12" t="s">
         <v>12</v>
       </c>
       <c r="D13" s="6"/>
     </row>
     <row r="14" spans="2:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="21" t="s">
+      <c r="B14" s="44" t="s">
         <v>13</v>
       </c>
       <c r="C14" s="2" t="s">
@@ -4977,21 +4974,21 @@
       <c r="D14" s="8"/>
     </row>
     <row r="15" spans="2:4" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="22"/>
+      <c r="B15" s="45"/>
       <c r="C15" s="13" t="s">
         <v>15</v>
       </c>
       <c r="D15" s="14"/>
     </row>
     <row r="16" spans="2:4" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="23"/>
+      <c r="B16" s="46"/>
       <c r="C16" s="15" t="s">
         <v>16</v>
       </c>
       <c r="D16" s="16"/>
     </row>
     <row r="17" spans="2:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="21" t="s">
+      <c r="B17" s="44" t="s">
         <v>19</v>
       </c>
       <c r="C17" s="2" t="s">
@@ -5000,28 +4997,28 @@
       <c r="D17" s="8"/>
     </row>
     <row r="18" spans="2:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="22"/>
+      <c r="B18" s="45"/>
       <c r="C18" s="17" t="s">
         <v>21</v>
       </c>
       <c r="D18" s="14"/>
     </row>
     <row r="19" spans="2:4" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="22"/>
+      <c r="B19" s="45"/>
       <c r="C19" s="3" t="s">
         <v>22</v>
       </c>
       <c r="D19" s="4"/>
     </row>
     <row r="20" spans="2:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="23"/>
+      <c r="B20" s="46"/>
       <c r="C20" s="5" t="s">
         <v>23</v>
       </c>
       <c r="D20" s="6"/>
     </row>
     <row r="21" spans="2:4" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="21" t="s">
+      <c r="B21" s="44" t="s">
         <v>24</v>
       </c>
       <c r="C21" s="2" t="s">
@@ -5030,13 +5027,13 @@
       <c r="D21" s="8"/>
     </row>
     <row r="22" spans="2:4" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="22"/>
+      <c r="B22" s="45"/>
       <c r="C22" s="1" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="23" spans="2:4" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="24"/>
+      <c r="B23" s="47"/>
       <c r="C23" s="19" t="s">
         <v>27</v>
       </c>
@@ -5060,215 +5057,215 @@
   <dimension ref="B1:G11"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="4" width="11.42578125" style="28"/>
-    <col min="5" max="5" width="15.28515625" style="28" customWidth="1"/>
+    <col min="2" max="4" width="11.42578125" style="24"/>
+    <col min="5" max="5" width="15.28515625" style="24" customWidth="1"/>
     <col min="6" max="6" width="26.28515625" customWidth="1"/>
     <col min="7" max="7" width="13.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:7" ht="32.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="29" t="s">
+      <c r="B2" s="22" t="s">
         <v>41</v>
       </c>
-      <c r="C2" s="30" t="s">
+      <c r="C2" s="25" t="s">
         <v>40</v>
       </c>
-      <c r="D2" s="30" t="s">
+      <c r="D2" s="25" t="s">
         <v>39</v>
       </c>
-      <c r="E2" s="29" t="s">
+      <c r="E2" s="22" t="s">
         <v>38</v>
       </c>
-      <c r="F2" s="31" t="s">
+      <c r="F2" s="26" t="s">
         <v>43</v>
       </c>
-      <c r="G2" s="31" t="s">
+      <c r="G2" s="26" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="3" spans="2:7" s="25" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="32">
+    <row r="3" spans="2:7" s="21" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="27">
         <v>1</v>
       </c>
-      <c r="C3" s="33" t="s">
+      <c r="C3" s="28" t="s">
         <v>29</v>
       </c>
-      <c r="D3" s="33">
+      <c r="D3" s="28">
         <v>0.92500000000000004</v>
       </c>
-      <c r="E3" s="34" t="s">
+      <c r="E3" s="29" t="s">
         <v>30</v>
       </c>
-      <c r="F3" s="35" t="s">
+      <c r="F3" s="30" t="s">
         <v>45</v>
       </c>
-      <c r="G3" s="34">
+      <c r="G3" s="29">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="2:7" s="25" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="39">
+    <row r="4" spans="2:7" s="21" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="34">
         <v>2</v>
       </c>
-      <c r="C4" s="40" t="s">
+      <c r="C4" s="35" t="s">
         <v>29</v>
       </c>
-      <c r="D4" s="40">
+      <c r="D4" s="35">
         <v>0.95499999999999996</v>
       </c>
-      <c r="E4" s="41" t="s">
+      <c r="E4" s="36" t="s">
         <v>42</v>
       </c>
-      <c r="F4" s="37" t="s">
+      <c r="F4" s="32" t="s">
         <v>46</v>
       </c>
-      <c r="G4" s="41">
+      <c r="G4" s="36">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="2:7" s="25" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="39">
+    <row r="5" spans="2:7" s="21" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="34">
         <v>3</v>
       </c>
-      <c r="C5" s="40" t="s">
+      <c r="C5" s="35" t="s">
         <v>29</v>
       </c>
-      <c r="D5" s="40">
+      <c r="D5" s="35">
         <v>0.93700000000000006</v>
       </c>
-      <c r="E5" s="41" t="s">
+      <c r="E5" s="36" t="s">
         <v>31</v>
       </c>
-      <c r="F5" s="36" t="s">
+      <c r="F5" s="31" t="s">
         <v>45</v>
       </c>
-      <c r="G5" s="41">
+      <c r="G5" s="36">
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="2:7" s="25" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="42">
+    <row r="6" spans="2:7" s="21" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="37">
         <v>4</v>
       </c>
-      <c r="C6" s="43" t="s">
+      <c r="C6" s="38" t="s">
         <v>29</v>
       </c>
-      <c r="D6" s="43">
+      <c r="D6" s="38">
         <v>0.96399999999999997</v>
       </c>
-      <c r="E6" s="44" t="s">
+      <c r="E6" s="39" t="s">
         <v>32</v>
       </c>
-      <c r="F6" s="48" t="s">
+      <c r="F6" s="43" t="s">
         <v>46</v>
       </c>
-      <c r="G6" s="44">
+      <c r="G6" s="39">
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="2:7" s="25" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="39">
+    <row r="7" spans="2:7" s="21" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="34">
         <v>5</v>
       </c>
-      <c r="C7" s="40" t="s">
+      <c r="C7" s="35" t="s">
         <v>29</v>
       </c>
-      <c r="D7" s="40">
+      <c r="D7" s="35">
         <v>0.92900000000000005</v>
       </c>
-      <c r="E7" s="41" t="s">
+      <c r="E7" s="36" t="s">
         <v>33</v>
       </c>
-      <c r="F7" s="36" t="s">
+      <c r="F7" s="31" t="s">
         <v>45</v>
       </c>
-      <c r="G7" s="41">
+      <c r="G7" s="36">
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="2:7" s="25" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="39">
+    <row r="8" spans="2:7" s="21" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="34">
         <v>6</v>
       </c>
-      <c r="C8" s="40" t="s">
+      <c r="C8" s="35" t="s">
         <v>29</v>
       </c>
-      <c r="D8" s="40">
+      <c r="D8" s="35">
         <v>0.95599999999999996</v>
       </c>
-      <c r="E8" s="41" t="s">
+      <c r="E8" s="36" t="s">
         <v>34</v>
       </c>
-      <c r="F8" s="37" t="s">
+      <c r="F8" s="32" t="s">
         <v>46</v>
       </c>
-      <c r="G8" s="41">
+      <c r="G8" s="36">
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="2:7" s="25" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="39">
+    <row r="9" spans="2:7" s="21" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="34">
         <v>7</v>
       </c>
-      <c r="C9" s="40" t="s">
+      <c r="C9" s="35" t="s">
         <v>29</v>
       </c>
-      <c r="D9" s="40">
+      <c r="D9" s="35">
         <v>0.96199999999999997</v>
       </c>
-      <c r="E9" s="41" t="s">
+      <c r="E9" s="36" t="s">
         <v>35</v>
       </c>
-      <c r="F9" s="37" t="s">
+      <c r="F9" s="32" t="s">
         <v>46</v>
       </c>
-      <c r="G9" s="41">
+      <c r="G9" s="36">
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="2:7" s="25" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="39">
+    <row r="10" spans="2:7" s="21" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="34">
         <v>8</v>
       </c>
-      <c r="C10" s="40" t="s">
+      <c r="C10" s="35" t="s">
         <v>29</v>
       </c>
-      <c r="D10" s="40">
+      <c r="D10" s="35">
         <v>0.875</v>
       </c>
-      <c r="E10" s="41" t="s">
+      <c r="E10" s="36" t="s">
         <v>36</v>
       </c>
-      <c r="F10" s="37" t="s">
+      <c r="F10" s="32" t="s">
         <v>46</v>
       </c>
-      <c r="G10" s="41">
+      <c r="G10" s="36">
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="2:7" s="25" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="45">
+    <row r="11" spans="2:7" s="21" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="40">
         <v>9</v>
       </c>
-      <c r="C11" s="46" t="s">
+      <c r="C11" s="41" t="s">
         <v>29</v>
       </c>
-      <c r="D11" s="46">
+      <c r="D11" s="41">
         <v>0.96199999999999997</v>
       </c>
-      <c r="E11" s="47" t="s">
+      <c r="E11" s="42" t="s">
         <v>37</v>
       </c>
-      <c r="F11" s="38" t="s">
+      <c r="F11" s="33" t="s">
         <v>46</v>
       </c>
-      <c r="G11" s="47">
+      <c r="G11" s="42">
         <v>2</v>
       </c>
     </row>

--- a/document/Variables Problem Set3.xlsx
+++ b/document/Variables Problem Set3.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Output R\Problem_Set3\Taller_3\document\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CB4466F-C8BC-442F-91BA-1D1E76520295}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C61FA7B-3555-47D1-AE77-05758A0B1016}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="1" xr2:uid="{F8E9F184-94BF-4EAA-8929-623F6B4CE331}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="2" xr2:uid="{F8E9F184-94BF-4EAA-8929-623F6B4CE331}"/>
   </bookViews>
   <sheets>
-    <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
-    <sheet name="Accuracy" sheetId="2" r:id="rId2"/>
+    <sheet name="Variables" sheetId="1" r:id="rId1"/>
+    <sheet name="Stat" sheetId="3" r:id="rId2"/>
+    <sheet name="Accuracy" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="69">
   <si>
     <t>Dimensiones</t>
   </si>
@@ -117,9 +118,6 @@
     <t>Ingreso por Hogar</t>
   </si>
   <si>
-    <t>Ingreso percápita Hogar</t>
-  </si>
-  <si>
     <t>Subsidios</t>
   </si>
   <si>
@@ -178,13 +176,118 @@
   </si>
   <si>
     <t>Ingreso per cápita Hogar</t>
+  </si>
+  <si>
+    <r>
+      <t>Tabla 1:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Variables seleccionadas para pronósticos de Pobreza</t>
+    </r>
+  </si>
+  <si>
+    <t>Tiene Seguridad Social</t>
+  </si>
+  <si>
+    <t>Statistic</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>Min</t>
+  </si>
+  <si>
+    <t>Max</t>
+  </si>
+  <si>
+    <t>St. Dev.</t>
+  </si>
+  <si>
+    <t>Persona por Unidad Gasto</t>
+  </si>
+  <si>
+    <t>Pago Arriendo</t>
+  </si>
+  <si>
+    <t>Ingreso total Hogar</t>
+  </si>
+  <si>
+    <t>Edad jefe de Hogar</t>
+  </si>
+  <si>
+    <t>Edad Conyugue</t>
+  </si>
+  <si>
+    <t>Experiencia Empresas</t>
+  </si>
+  <si>
+    <t>Horas trabajadas jefe Hogar</t>
+  </si>
+  <si>
+    <t>Horas trabajadas prop. Ocupados</t>
+  </si>
+  <si>
+    <t>Horas trabajadas ocupados</t>
+  </si>
+  <si>
+    <t>Menores de 18 años</t>
+  </si>
+  <si>
+    <t>Educ. promedio hijos</t>
+  </si>
+  <si>
+    <t>=======================================================================================</t>
+  </si>
+  <si>
+    <t>--------------------------------------------------------------------------------------------------------------------------</t>
+  </si>
+  <si>
+    <t>----------------------------------------------------------------------------------------------------------------------------</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Tabla 2:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Estadisticas Variables Seleccionadas</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <numFmts count="2">
+    <numFmt numFmtId="168" formatCode="#,##0.0"/>
+    <numFmt numFmtId="169" formatCode="0.0%"/>
+  </numFmts>
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -196,6 +299,24 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Cascadia Code"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -215,7 +336,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="35">
+  <borders count="36">
     <border>
       <left/>
       <right/>
@@ -647,11 +768,21 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="62">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -662,19 +793,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -684,11 +811,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -698,7 +823,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -780,9 +904,67 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Porcentaje" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1697,13 +1879,13 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>666750</xdr:colOff>
+      <xdr:colOff>685801</xdr:colOff>
       <xdr:row>8</xdr:row>
-      <xdr:rowOff>119062</xdr:rowOff>
+      <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="196977" cy="183961"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-      <mc:Choice Requires="a14">
+    <xdr:ext cx="209550" cy="161926"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="7" name="CuadroTexto 6">
@@ -1717,8 +1899,177 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="4248150" y="2328862"/>
-              <a:ext cx="196977" cy="183961"/>
+              <a:off x="4800601" y="2228850"/>
+              <a:ext cx="209550" cy="161926"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:noAutofit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr/>
+              <a14:m>
+                <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:sSubSup>
+                    <m:sSubSupPr>
+                      <m:ctrlPr>
+                        <a:rPr lang="es-CO" sz="1100" b="1" i="1">
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        </a:rPr>
+                      </m:ctrlPr>
+                    </m:sSubSupPr>
+                    <m:e>
+                      <m:r>
+                        <a:rPr lang="es-ES" sz="1100" b="1" i="1">
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        </a:rPr>
+                        <m:t>𝑿</m:t>
+                      </m:r>
+                    </m:e>
+                    <m:sub>
+                      <m:r>
+                        <a:rPr lang="es-ES" sz="1100" b="1" i="1">
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        </a:rPr>
+                        <m:t>𝒊</m:t>
+                      </m:r>
+                    </m:sub>
+                    <m:sup>
+                      <m:r>
+                        <a:rPr lang="es-ES" sz="1100" b="1" i="1">
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        </a:rPr>
+                        <m:t>𝟕</m:t>
+                      </m:r>
+                    </m:sup>
+                  </m:sSubSup>
+                </m:oMath>
+              </a14:m>
+              <a:r>
+                <a:rPr lang="es-CO" sz="1100" b="1"/>
+                <a:t>	</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="7" name="CuadroTexto 6">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{86ED2B72-F49D-400A-AA9F-4F4B99C83A1D}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="4800601" y="2228850"/>
+              <a:ext cx="209550" cy="161926"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:noAutofit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr/>
+              <a:r>
+                <a:rPr lang="es-ES" sz="1100" b="1" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝑿</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="es-CO" sz="1100" b="1" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>_</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="es-ES" sz="1100" b="1" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝒊^𝟕</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="es-CO" sz="1100" b="1"/>
+                <a:t>	</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>685800</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>42862</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="196977" cy="185115"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="8" name="CuadroTexto 7">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{86C834C9-25DF-4FA8-B35C-63352C3CF8B9}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="4800600" y="2576512"/>
+              <a:ext cx="196977" cy="185115"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -1781,7 +2132,7 @@
                           <a:rPr lang="es-ES" sz="1100" b="1" i="1">
                             <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                           </a:rPr>
-                          <m:t>𝟕</m:t>
+                          <m:t>𝟖</m:t>
                         </m:r>
                       </m:sup>
                     </m:sSubSup>
@@ -1793,96 +2144,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback xmlns="">
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="7" name="CuadroTexto 6">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{86ED2B72-F49D-400A-AA9F-4F4B99C83A1D}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr txBox="1"/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="4248150" y="2328862"/>
-              <a:ext cx="196977" cy="183961"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-          </xdr:spPr>
-          <xdr:style>
-            <a:lnRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:lnRef>
-            <a:fillRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:fillRef>
-            <a:effectRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:effectRef>
-            <a:fontRef idx="minor">
-              <a:schemeClr val="tx1"/>
-            </a:fontRef>
-          </xdr:style>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
-              <a:spAutoFit/>
-            </a:bodyPr>
-            <a:lstStyle/>
-            <a:p>
-              <a:r>
-                <a:rPr lang="es-ES" sz="1100" b="1" i="0">
-                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                </a:rPr>
-                <a:t>𝑿</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="es-CO" sz="1100" b="1" i="0">
-                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                </a:rPr>
-                <a:t>_</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="es-ES" sz="1100" b="1" i="0">
-                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                </a:rPr>
-                <a:t>𝒊</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="es-CO" sz="1100" b="1" i="0">
-                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                </a:rPr>
-                <a:t>^</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="es-ES" sz="1100" b="1" i="0">
-                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                </a:rPr>
-                <a:t>𝟕</a:t>
-              </a:r>
-              <a:endParaRPr lang="es-CO" sz="1100" b="1"/>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>666750</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>14287</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="196977" cy="185115"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-      <mc:Choice Requires="a14">
+      <mc:Fallback>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="8" name="CuadroTexto 7">
@@ -1896,7 +2158,85 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="4248150" y="2709862"/>
+              <a:off x="4800600" y="2576512"/>
+              <a:ext cx="196977" cy="185115"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr/>
+              <a:r>
+                <a:rPr lang="es-ES" sz="1100" b="1" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝑿</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="es-CO" sz="1100" b="1" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>_</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="es-ES" sz="1100" b="1" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝒊^𝟖</a:t>
+              </a:r>
+              <a:endParaRPr lang="es-CO" sz="1100" b="1"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>676275</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>52387</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="196977" cy="185115"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="9" name="CuadroTexto 8">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{393C9A52-A791-441D-85B6-0BC7219EE0B5}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="4791075" y="2862262"/>
               <a:ext cx="196977" cy="185115"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
@@ -1960,7 +2300,7 @@
                           <a:rPr lang="es-ES" sz="1100" b="1" i="1">
                             <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                           </a:rPr>
-                          <m:t>𝟖</m:t>
+                          <m:t>𝟗</m:t>
                         </m:r>
                       </m:sup>
                     </m:sSubSup>
@@ -1972,96 +2312,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback xmlns="">
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="8" name="CuadroTexto 7">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{86C834C9-25DF-4FA8-B35C-63352C3CF8B9}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr txBox="1"/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="4248150" y="2709862"/>
-              <a:ext cx="196977" cy="185115"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-          </xdr:spPr>
-          <xdr:style>
-            <a:lnRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:lnRef>
-            <a:fillRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:fillRef>
-            <a:effectRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:effectRef>
-            <a:fontRef idx="minor">
-              <a:schemeClr val="tx1"/>
-            </a:fontRef>
-          </xdr:style>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
-              <a:spAutoFit/>
-            </a:bodyPr>
-            <a:lstStyle/>
-            <a:p>
-              <a:r>
-                <a:rPr lang="es-ES" sz="1100" b="1" i="0">
-                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                </a:rPr>
-                <a:t>𝑿</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="es-CO" sz="1100" b="1" i="0">
-                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                </a:rPr>
-                <a:t>_</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="es-ES" sz="1100" b="1" i="0">
-                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                </a:rPr>
-                <a:t>𝒊</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="es-CO" sz="1100" b="1" i="0">
-                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                </a:rPr>
-                <a:t>^</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="es-ES" sz="1100" b="1" i="0">
-                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                </a:rPr>
-                <a:t>𝟖</a:t>
-              </a:r>
-              <a:endParaRPr lang="es-CO" sz="1100" b="1"/>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>685800</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>33337</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="196977" cy="185115"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-      <mc:Choice Requires="a14">
+      <mc:Fallback>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="9" name="CuadroTexto 8">
@@ -2075,8 +2326,86 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="4267200" y="2976562"/>
+              <a:off x="4791075" y="2862262"/>
               <a:ext cx="196977" cy="185115"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr/>
+              <a:r>
+                <a:rPr lang="es-ES" sz="1100" b="1" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝑿</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="es-CO" sz="1100" b="1" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>_</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="es-ES" sz="1100" b="1" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝒊^𝟗</a:t>
+              </a:r>
+              <a:endParaRPr lang="es-CO" sz="1100" b="1"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>647700</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>61912</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="258597" cy="185115"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="10" name="CuadroTexto 9">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D4965AB7-BDA7-4053-8512-5D2DEA81D03F}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="4762500" y="3148012"/>
+              <a:ext cx="258597" cy="185115"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -2139,7 +2468,7 @@
                           <a:rPr lang="es-ES" sz="1100" b="1" i="1">
                             <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                           </a:rPr>
-                          <m:t>𝟗</m:t>
+                          <m:t>𝟏𝟎</m:t>
                         </m:r>
                       </m:sup>
                     </m:sSubSup>
@@ -2151,96 +2480,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback xmlns="">
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="9" name="CuadroTexto 8">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{393C9A52-A791-441D-85B6-0BC7219EE0B5}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr txBox="1"/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="4267200" y="2976562"/>
-              <a:ext cx="196977" cy="185115"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-          </xdr:spPr>
-          <xdr:style>
-            <a:lnRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:lnRef>
-            <a:fillRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:fillRef>
-            <a:effectRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:effectRef>
-            <a:fontRef idx="minor">
-              <a:schemeClr val="tx1"/>
-            </a:fontRef>
-          </xdr:style>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
-              <a:spAutoFit/>
-            </a:bodyPr>
-            <a:lstStyle/>
-            <a:p>
-              <a:r>
-                <a:rPr lang="es-ES" sz="1100" b="1" i="0">
-                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                </a:rPr>
-                <a:t>𝑿</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="es-CO" sz="1100" b="1" i="0">
-                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                </a:rPr>
-                <a:t>_</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="es-ES" sz="1100" b="1" i="0">
-                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                </a:rPr>
-                <a:t>𝒊</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="es-CO" sz="1100" b="1" i="0">
-                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                </a:rPr>
-                <a:t>^</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="es-ES" sz="1100" b="1" i="0">
-                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                </a:rPr>
-                <a:t>𝟗</a:t>
-              </a:r>
-              <a:endParaRPr lang="es-CO" sz="1100" b="1"/>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>619125</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>90487</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="258597" cy="185115"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-      <mc:Choice Requires="a14">
+      <mc:Fallback>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="10" name="CuadroTexto 9">
@@ -2254,8 +2494,86 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="4200525" y="3262312"/>
+              <a:off x="4762500" y="3148012"/>
               <a:ext cx="258597" cy="185115"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr/>
+              <a:r>
+                <a:rPr lang="es-ES" sz="1100" b="1" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝑿</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="es-CO" sz="1100" b="1" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>_</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="es-ES" sz="1100" b="1" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝒊^𝟏𝟎</a:t>
+              </a:r>
+              <a:endParaRPr lang="es-CO" sz="1100" b="1"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>647700</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>52387</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="258597" cy="184731"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="11" name="CuadroTexto 10">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6FBA1645-17BF-4EFC-83D4-9A8AE75E3CDB}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="4762500" y="3414712"/>
+              <a:ext cx="258597" cy="184731"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -2318,7 +2636,7 @@
                           <a:rPr lang="es-ES" sz="1100" b="1" i="1">
                             <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                           </a:rPr>
-                          <m:t>𝟏𝟎</m:t>
+                          <m:t>𝟏𝟏</m:t>
                         </m:r>
                       </m:sup>
                     </m:sSubSup>
@@ -2330,96 +2648,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback xmlns="">
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="10" name="CuadroTexto 9">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D4965AB7-BDA7-4053-8512-5D2DEA81D03F}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr txBox="1"/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="4200525" y="3262312"/>
-              <a:ext cx="258597" cy="185115"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-          </xdr:spPr>
-          <xdr:style>
-            <a:lnRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:lnRef>
-            <a:fillRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:fillRef>
-            <a:effectRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:effectRef>
-            <a:fontRef idx="minor">
-              <a:schemeClr val="tx1"/>
-            </a:fontRef>
-          </xdr:style>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
-              <a:spAutoFit/>
-            </a:bodyPr>
-            <a:lstStyle/>
-            <a:p>
-              <a:r>
-                <a:rPr lang="es-ES" sz="1100" b="1" i="0">
-                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                </a:rPr>
-                <a:t>𝑿</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="es-CO" sz="1100" b="1" i="0">
-                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                </a:rPr>
-                <a:t>_</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="es-ES" sz="1100" b="1" i="0">
-                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                </a:rPr>
-                <a:t>𝒊</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="es-CO" sz="1100" b="1" i="0">
-                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                </a:rPr>
-                <a:t>^</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="es-ES" sz="1100" b="1" i="0">
-                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                </a:rPr>
-                <a:t>𝟏𝟎</a:t>
-              </a:r>
-              <a:endParaRPr lang="es-CO" sz="1100" b="1"/>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>628650</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>119062</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="258597" cy="184731"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-      <mc:Choice Requires="a14">
+      <mc:Fallback>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="11" name="CuadroTexto 10">
@@ -2433,7 +2662,85 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="4210050" y="3681412"/>
+              <a:off x="4762500" y="3414712"/>
+              <a:ext cx="258597" cy="184731"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr/>
+              <a:r>
+                <a:rPr lang="es-ES" sz="1100" b="1" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝑿</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="es-CO" sz="1100" b="1" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>_</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="es-ES" sz="1100" b="1" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝒊^𝟏𝟏</a:t>
+              </a:r>
+              <a:endParaRPr lang="es-CO" sz="1100" b="1"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>657225</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>42862</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="258597" cy="184731"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="12" name="CuadroTexto 11">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7A061EE0-F5AE-4EF8-A0BB-95F23E49A542}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="4772025" y="3681412"/>
               <a:ext cx="258597" cy="184731"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
@@ -2497,7 +2804,7 @@
                           <a:rPr lang="es-ES" sz="1100" b="1" i="1">
                             <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                           </a:rPr>
-                          <m:t>𝟏𝟏</m:t>
+                          <m:t>𝟏𝟐</m:t>
                         </m:r>
                       </m:sup>
                     </m:sSubSup>
@@ -2509,96 +2816,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback xmlns="">
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="11" name="CuadroTexto 10">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6FBA1645-17BF-4EFC-83D4-9A8AE75E3CDB}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr txBox="1"/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="4210050" y="3681412"/>
-              <a:ext cx="258597" cy="184731"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-          </xdr:spPr>
-          <xdr:style>
-            <a:lnRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:lnRef>
-            <a:fillRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:fillRef>
-            <a:effectRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:effectRef>
-            <a:fontRef idx="minor">
-              <a:schemeClr val="tx1"/>
-            </a:fontRef>
-          </xdr:style>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
-              <a:spAutoFit/>
-            </a:bodyPr>
-            <a:lstStyle/>
-            <a:p>
-              <a:r>
-                <a:rPr lang="es-ES" sz="1100" b="1" i="0">
-                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                </a:rPr>
-                <a:t>𝑿</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="es-CO" sz="1100" b="1" i="0">
-                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                </a:rPr>
-                <a:t>_</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="es-ES" sz="1100" b="1" i="0">
-                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                </a:rPr>
-                <a:t>𝒊</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="es-CO" sz="1100" b="1" i="0">
-                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                </a:rPr>
-                <a:t>^</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="es-ES" sz="1100" b="1" i="0">
-                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                </a:rPr>
-                <a:t>𝟏𝟏</a:t>
-              </a:r>
-              <a:endParaRPr lang="es-CO" sz="1100" b="1"/>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>619125</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>42862</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="258597" cy="184731"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-      <mc:Choice Requires="a14">
+      <mc:Fallback>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="12" name="CuadroTexto 11">
@@ -2612,8 +2830,86 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="4200525" y="3986212"/>
+              <a:off x="4772025" y="3681412"/>
               <a:ext cx="258597" cy="184731"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr/>
+              <a:r>
+                <a:rPr lang="es-ES" sz="1100" b="1" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝑿</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="es-CO" sz="1100" b="1" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>_</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="es-ES" sz="1100" b="1" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝒊^𝟏𝟐</a:t>
+              </a:r>
+              <a:endParaRPr lang="es-CO" sz="1100" b="1"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>638175</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>52387</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="258597" cy="185115"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="13" name="CuadroTexto 12">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7BD46B7B-2AD3-4F5C-A4C0-6B19D6F7DF51}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="4752975" y="3967162"/>
+              <a:ext cx="258597" cy="185115"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -2676,7 +2972,7 @@
                           <a:rPr lang="es-ES" sz="1100" b="1" i="1">
                             <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                           </a:rPr>
-                          <m:t>𝟏𝟐</m:t>
+                          <m:t>𝟏𝟑</m:t>
                         </m:r>
                       </m:sup>
                     </m:sSubSup>
@@ -2688,96 +2984,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback xmlns="">
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="12" name="CuadroTexto 11">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7A061EE0-F5AE-4EF8-A0BB-95F23E49A542}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr txBox="1"/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="4200525" y="3986212"/>
-              <a:ext cx="258597" cy="184731"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-          </xdr:spPr>
-          <xdr:style>
-            <a:lnRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:lnRef>
-            <a:fillRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:fillRef>
-            <a:effectRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:effectRef>
-            <a:fontRef idx="minor">
-              <a:schemeClr val="tx1"/>
-            </a:fontRef>
-          </xdr:style>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
-              <a:spAutoFit/>
-            </a:bodyPr>
-            <a:lstStyle/>
-            <a:p>
-              <a:r>
-                <a:rPr lang="es-ES" sz="1100" b="1" i="0">
-                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                </a:rPr>
-                <a:t>𝑿</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="es-CO" sz="1100" b="1" i="0">
-                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                </a:rPr>
-                <a:t>_</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="es-ES" sz="1100" b="1" i="0">
-                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                </a:rPr>
-                <a:t>𝒊</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="es-CO" sz="1100" b="1" i="0">
-                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                </a:rPr>
-                <a:t>^</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="es-ES" sz="1100" b="1" i="0">
-                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                </a:rPr>
-                <a:t>𝟏𝟐</a:t>
-              </a:r>
-              <a:endParaRPr lang="es-CO" sz="1100" b="1"/>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>619125</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>109537</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="258597" cy="185115"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-      <mc:Choice Requires="a14">
+      <mc:Fallback>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="13" name="CuadroTexto 12">
@@ -2791,7 +2998,7 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="4200525" y="4300537"/>
+              <a:off x="4752975" y="3967162"/>
               <a:ext cx="258597" cy="185115"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
@@ -2820,95 +3027,6 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr/>
-              <a14:m>
-                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
-                  <m:oMathParaPr>
-                    <m:jc m:val="centerGroup"/>
-                  </m:oMathParaPr>
-                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
-                    <m:sSubSup>
-                      <m:sSubSupPr>
-                        <m:ctrlPr>
-                          <a:rPr lang="es-CO" sz="1100" b="1" i="1">
-                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                          </a:rPr>
-                        </m:ctrlPr>
-                      </m:sSubSupPr>
-                      <m:e>
-                        <m:r>
-                          <a:rPr lang="es-ES" sz="1100" b="1" i="1">
-                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                          </a:rPr>
-                          <m:t>𝑿</m:t>
-                        </m:r>
-                      </m:e>
-                      <m:sub>
-                        <m:r>
-                          <a:rPr lang="es-ES" sz="1100" b="1" i="1">
-                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                          </a:rPr>
-                          <m:t>𝒊</m:t>
-                        </m:r>
-                      </m:sub>
-                      <m:sup>
-                        <m:r>
-                          <a:rPr lang="es-ES" sz="1100" b="1" i="1">
-                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                          </a:rPr>
-                          <m:t>𝟏𝟑</m:t>
-                        </m:r>
-                      </m:sup>
-                    </m:sSubSup>
-                  </m:oMath>
-                </m:oMathPara>
-              </a14:m>
-              <a:endParaRPr lang="es-CO" sz="1100" b="1"/>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-      </mc:Choice>
-      <mc:Fallback xmlns="">
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="13" name="CuadroTexto 12">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7BD46B7B-2AD3-4F5C-A4C0-6B19D6F7DF51}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr txBox="1"/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="4200525" y="4300537"/>
-              <a:ext cx="258597" cy="185115"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-          </xdr:spPr>
-          <xdr:style>
-            <a:lnRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:lnRef>
-            <a:fillRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:fillRef>
-            <a:effectRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:effectRef>
-            <a:fontRef idx="minor">
-              <a:schemeClr val="tx1"/>
-            </a:fontRef>
-          </xdr:style>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
-              <a:spAutoFit/>
-            </a:bodyPr>
-            <a:lstStyle/>
-            <a:p>
               <a:r>
                 <a:rPr lang="es-ES" sz="1100" b="1" i="0">
                   <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
@@ -2925,19 +3043,7 @@
                 <a:rPr lang="es-ES" sz="1100" b="1" i="0">
                   <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                 </a:rPr>
-                <a:t>𝒊</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="es-CO" sz="1100" b="1" i="0">
-                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                </a:rPr>
-                <a:t>^</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="es-ES" sz="1100" b="1" i="0">
-                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                </a:rPr>
-                <a:t>𝟏𝟑</a:t>
+                <a:t>𝒊^𝟏𝟑</a:t>
               </a:r>
               <a:endParaRPr lang="es-CO" sz="1100" b="1"/>
             </a:p>
@@ -3129,13 +3235,13 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>561975</xdr:colOff>
+      <xdr:colOff>590550</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>90487</xdr:rowOff>
+      <xdr:rowOff>33337</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="333375" cy="184731"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-      <mc:Choice Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="15" name="CuadroTexto 14">
@@ -3149,7 +3255,7 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="3648075" y="4624387"/>
+              <a:off x="4705350" y="4224337"/>
               <a:ext cx="333375" cy="184731"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
@@ -3225,7 +3331,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback xmlns="">
+      <mc:Fallback>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="15" name="CuadroTexto 14">
@@ -3239,7 +3345,7 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="3648075" y="4624387"/>
+              <a:off x="4705350" y="4224337"/>
               <a:ext cx="333375" cy="184731"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
@@ -3267,6 +3373,7 @@
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
+              <a:pPr/>
               <a:r>
                 <a:rPr lang="es-ES" sz="1100" b="1" i="0">
                   <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
@@ -3283,19 +3390,7 @@
                 <a:rPr lang="es-ES" sz="1100" b="1" i="0">
                   <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                 </a:rPr>
-                <a:t>𝒊</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="es-CO" sz="1100" b="1" i="0">
-                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                </a:rPr>
-                <a:t>^</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="es-ES" sz="1100" b="1" i="0">
-                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                </a:rPr>
-                <a:t>𝟏𝟒</a:t>
+                <a:t>𝒊^𝟏𝟒</a:t>
               </a:r>
               <a:endParaRPr lang="es-CO" sz="1100" b="1"/>
             </a:p>
@@ -3310,11 +3405,11 @@
       <xdr:col>3</xdr:col>
       <xdr:colOff>609600</xdr:colOff>
       <xdr:row>16</xdr:row>
-      <xdr:rowOff>23812</xdr:rowOff>
+      <xdr:rowOff>33337</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="258597" cy="187615"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-      <mc:Choice Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="16" name="CuadroTexto 15">
@@ -3328,7 +3423,7 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="3695700" y="4910137"/>
+              <a:off x="4724400" y="4500562"/>
               <a:ext cx="258597" cy="187615"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
@@ -3404,7 +3499,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback xmlns="">
+      <mc:Fallback>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="16" name="CuadroTexto 15">
@@ -3418,7 +3513,7 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="3695700" y="4910137"/>
+              <a:off x="4724400" y="4500562"/>
               <a:ext cx="258597" cy="187615"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
@@ -3446,6 +3541,7 @@
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
+              <a:pPr/>
               <a:r>
                 <a:rPr lang="es-ES" sz="1100" b="1" i="0">
                   <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
@@ -3462,19 +3558,7 @@
                 <a:rPr lang="es-ES" sz="1100" b="1" i="0">
                   <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                 </a:rPr>
-                <a:t>𝒊</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="es-CO" sz="1100" b="1" i="0">
-                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                </a:rPr>
-                <a:t>^</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="es-ES" sz="1100" b="1" i="0">
-                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                </a:rPr>
-                <a:t>𝟏𝟓</a:t>
+                <a:t>𝒊^𝟏𝟓</a:t>
               </a:r>
               <a:endParaRPr lang="es-CO" sz="1100" b="1"/>
             </a:p>
@@ -3487,13 +3571,13 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>619125</xdr:colOff>
+      <xdr:colOff>628650</xdr:colOff>
       <xdr:row>17</xdr:row>
-      <xdr:rowOff>23812</xdr:rowOff>
+      <xdr:rowOff>42862</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="258597" cy="185115"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-      <mc:Choice Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="17" name="CuadroTexto 16">
@@ -3507,7 +3591,7 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="3705225" y="5167312"/>
+              <a:off x="4743450" y="4786312"/>
               <a:ext cx="258597" cy="185115"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
@@ -3583,7 +3667,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback xmlns="">
+      <mc:Fallback>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="17" name="CuadroTexto 16">
@@ -3597,7 +3681,7 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="3705225" y="5167312"/>
+              <a:off x="4743450" y="4786312"/>
               <a:ext cx="258597" cy="185115"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
@@ -3625,6 +3709,7 @@
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
+              <a:pPr/>
               <a:r>
                 <a:rPr lang="es-ES" sz="1100" b="1" i="0">
                   <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
@@ -3641,19 +3726,7 @@
                 <a:rPr lang="es-ES" sz="1100" b="1" i="0">
                   <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                 </a:rPr>
-                <a:t>𝒊</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="es-CO" sz="1100" b="1" i="0">
-                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                </a:rPr>
-                <a:t>^</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="es-ES" sz="1100" b="1" i="0">
-                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                </a:rPr>
-                <a:t>𝟏𝟔</a:t>
+                <a:t>𝒊^𝟏𝟔</a:t>
               </a:r>
               <a:endParaRPr lang="es-CO" sz="1100" b="1"/>
             </a:p>
@@ -3666,13 +3739,13 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>590550</xdr:colOff>
+      <xdr:colOff>628650</xdr:colOff>
       <xdr:row>18</xdr:row>
-      <xdr:rowOff>80962</xdr:rowOff>
+      <xdr:rowOff>42862</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="258597" cy="184794"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-      <mc:Choice Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="18" name="CuadroTexto 17">
@@ -3686,7 +3759,7 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="3676650" y="5510212"/>
+              <a:off x="4743450" y="5062537"/>
               <a:ext cx="258597" cy="184794"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
@@ -3762,7 +3835,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback xmlns="">
+      <mc:Fallback>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="18" name="CuadroTexto 17">
@@ -3776,7 +3849,7 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="3676650" y="5510212"/>
+              <a:off x="4743450" y="5062537"/>
               <a:ext cx="258597" cy="184794"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
@@ -3804,6 +3877,7 @@
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
+              <a:pPr/>
               <a:r>
                 <a:rPr lang="es-ES" sz="1100" b="1" i="0">
                   <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
@@ -3820,19 +3894,7 @@
                 <a:rPr lang="es-ES" sz="1100" b="1" i="0">
                   <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                 </a:rPr>
-                <a:t>𝒊</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="es-CO" sz="1100" b="1" i="0">
-                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                </a:rPr>
-                <a:t>^</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="es-ES" sz="1100" b="1" i="0">
-                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                </a:rPr>
-                <a:t>𝟏𝟕</a:t>
+                <a:t>𝒊^𝟏𝟕</a:t>
               </a:r>
               <a:endParaRPr lang="es-CO" sz="1100" b="1"/>
             </a:p>
@@ -3847,11 +3909,11 @@
       <xdr:col>3</xdr:col>
       <xdr:colOff>609600</xdr:colOff>
       <xdr:row>19</xdr:row>
-      <xdr:rowOff>42862</xdr:rowOff>
+      <xdr:rowOff>52387</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="258597" cy="185115"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-      <mc:Choice Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="19" name="CuadroTexto 18">
@@ -3865,7 +3927,7 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="3695700" y="5824537"/>
+              <a:off x="4724400" y="5348287"/>
               <a:ext cx="258597" cy="185115"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
@@ -3941,7 +4003,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback xmlns="">
+      <mc:Fallback>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="19" name="CuadroTexto 18">
@@ -3955,7 +4017,7 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="3695700" y="5824537"/>
+              <a:off x="4724400" y="5348287"/>
               <a:ext cx="258597" cy="185115"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
@@ -3983,6 +4045,7 @@
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
+              <a:pPr/>
               <a:r>
                 <a:rPr lang="es-ES" sz="1100" b="1" i="0">
                   <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
@@ -3999,19 +4062,7 @@
                 <a:rPr lang="es-ES" sz="1100" b="1" i="0">
                   <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                 </a:rPr>
-                <a:t>𝒊</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="es-CO" sz="1100" b="1" i="0">
-                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                </a:rPr>
-                <a:t>^</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="es-ES" sz="1100" b="1" i="0">
-                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                </a:rPr>
-                <a:t>𝟏𝟖</a:t>
+                <a:t>𝒊^𝟏𝟖</a:t>
               </a:r>
               <a:endParaRPr lang="es-CO" sz="1100" b="1"/>
             </a:p>
@@ -4024,13 +4075,13 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>619125</xdr:colOff>
+      <xdr:colOff>609600</xdr:colOff>
       <xdr:row>20</xdr:row>
-      <xdr:rowOff>61912</xdr:rowOff>
+      <xdr:rowOff>52387</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="258597" cy="185115"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-      <mc:Choice Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="20" name="CuadroTexto 19">
@@ -4044,7 +4095,7 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="3705225" y="6129337"/>
+              <a:off x="4724400" y="5624512"/>
               <a:ext cx="258597" cy="185115"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
@@ -4120,7 +4171,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback xmlns="">
+      <mc:Fallback>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="20" name="CuadroTexto 19">
@@ -4134,7 +4185,7 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="3705225" y="6129337"/>
+              <a:off x="4724400" y="5624512"/>
               <a:ext cx="258597" cy="185115"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
@@ -4162,6 +4213,7 @@
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
+              <a:pPr/>
               <a:r>
                 <a:rPr lang="es-ES" sz="1100" b="1" i="0">
                   <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
@@ -4178,19 +4230,7 @@
                 <a:rPr lang="es-ES" sz="1100" b="1" i="0">
                   <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                 </a:rPr>
-                <a:t>𝒊</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="es-CO" sz="1100" b="1" i="0">
-                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                </a:rPr>
-                <a:t>^</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="es-ES" sz="1100" b="1" i="0">
-                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                </a:rPr>
-                <a:t>𝟏𝟗</a:t>
+                <a:t>𝒊^𝟏𝟗</a:t>
               </a:r>
               <a:endParaRPr lang="es-CO" sz="1100" b="1"/>
             </a:p>
@@ -4203,13 +4243,13 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>609600</xdr:colOff>
+      <xdr:colOff>638175</xdr:colOff>
       <xdr:row>21</xdr:row>
-      <xdr:rowOff>80962</xdr:rowOff>
+      <xdr:rowOff>42862</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="258597" cy="185115"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-      <mc:Choice Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="21" name="CuadroTexto 20">
@@ -4223,7 +4263,7 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="3695700" y="6424612"/>
+              <a:off x="4752975" y="5891212"/>
               <a:ext cx="258597" cy="185115"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
@@ -4299,7 +4339,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback xmlns="">
+      <mc:Fallback>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="21" name="CuadroTexto 20">
@@ -4313,7 +4353,7 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="3695700" y="6424612"/>
+              <a:off x="4752975" y="5891212"/>
               <a:ext cx="258597" cy="185115"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
@@ -4341,6 +4381,7 @@
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
+              <a:pPr/>
               <a:r>
                 <a:rPr lang="es-ES" sz="1100" b="1" i="0">
                   <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
@@ -4357,19 +4398,7 @@
                 <a:rPr lang="es-ES" sz="1100" b="1" i="0">
                   <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                 </a:rPr>
-                <a:t>𝒊</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="es-CO" sz="1100" b="1" i="0">
-                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                </a:rPr>
-                <a:t>^</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="es-ES" sz="1100" b="1" i="0">
-                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                </a:rPr>
-                <a:t>𝟐𝟎</a:t>
+                <a:t>𝒊^𝟐𝟎</a:t>
               </a:r>
               <a:endParaRPr lang="es-CO" sz="1100" b="1"/>
             </a:p>
@@ -4382,13 +4411,13 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>619125</xdr:colOff>
+      <xdr:colOff>638175</xdr:colOff>
       <xdr:row>22</xdr:row>
       <xdr:rowOff>42862</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="258597" cy="184731"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-      <mc:Choice Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="22" name="CuadroTexto 21">
@@ -4402,7 +4431,7 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="4200525" y="6738937"/>
+              <a:off x="4752975" y="6167437"/>
               <a:ext cx="258597" cy="184731"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
@@ -4478,7 +4507,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback xmlns="">
+      <mc:Fallback>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="22" name="CuadroTexto 21">
@@ -4492,7 +4521,7 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="4200525" y="6738937"/>
+              <a:off x="4752975" y="6167437"/>
               <a:ext cx="258597" cy="184731"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
@@ -4520,6 +4549,7 @@
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
+              <a:pPr/>
               <a:r>
                 <a:rPr lang="es-ES" sz="1100" b="1" i="0">
                   <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
@@ -4536,19 +4566,175 @@
                 <a:rPr lang="es-ES" sz="1100" b="1" i="0">
                   <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                 </a:rPr>
-                <a:t>𝒊</a:t>
+                <a:t>𝒊^𝟐𝟏</a:t>
+              </a:r>
+              <a:endParaRPr lang="es-CO" sz="1100" b="1"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>628650</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>23812</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="258597" cy="184731"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="23" name="CuadroTexto 22">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{207FC5ED-123B-4296-A77F-B0A0591EA8CC}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="4743450" y="6424612"/>
+              <a:ext cx="258597" cy="184731"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr/>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="centerGroup"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:sSubSup>
+                      <m:sSubSupPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="es-CO" sz="1100" b="1" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:sSubSupPr>
+                      <m:e>
+                        <m:r>
+                          <a:rPr lang="es-ES" sz="1100" b="1" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝑿</m:t>
+                        </m:r>
+                      </m:e>
+                      <m:sub>
+                        <m:r>
+                          <a:rPr lang="es-ES" sz="1100" b="1" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝒊</m:t>
+                        </m:r>
+                      </m:sub>
+                      <m:sup>
+                        <m:r>
+                          <a:rPr lang="es-ES" sz="1100" b="1" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝟐𝟐</m:t>
+                        </m:r>
+                      </m:sup>
+                    </m:sSubSup>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr lang="es-CO" sz="1100" b="1"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="23" name="CuadroTexto 22">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{207FC5ED-123B-4296-A77F-B0A0591EA8CC}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="4743450" y="6424612"/>
+              <a:ext cx="258597" cy="184731"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr/>
+              <a:r>
+                <a:rPr lang="es-ES" sz="1100" b="1" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝑿</a:t>
               </a:r>
               <a:r>
                 <a:rPr lang="es-CO" sz="1100" b="1" i="0">
                   <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                 </a:rPr>
-                <a:t>^</a:t>
+                <a:t>_</a:t>
               </a:r>
               <a:r>
                 <a:rPr lang="es-ES" sz="1100" b="1" i="0">
                   <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                 </a:rPr>
-                <a:t>𝟐𝟏</a:t>
+                <a:t>𝒊^𝟐𝟐</a:t>
               </a:r>
               <a:endParaRPr lang="es-CO" sz="1100" b="1"/>
             </a:p>
@@ -4858,193 +5044,207 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B29E34C-EB63-4D34-B4C1-6910CE8CFD74}">
-  <dimension ref="B1:D23"/>
+  <dimension ref="B1:D24"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="4" customWidth="1"/>
     <col min="2" max="2" width="18.42578125" customWidth="1"/>
-    <col min="3" max="3" width="23.85546875" customWidth="1"/>
-    <col min="4" max="4" width="25.28515625" customWidth="1"/>
+    <col min="3" max="3" width="39.28515625" customWidth="1"/>
+    <col min="4" max="4" width="21.28515625" style="41" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:4" ht="25.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="22" t="s">
+    <row r="1" spans="2:4" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B1" s="48" t="s">
+        <v>46</v>
+      </c>
+      <c r="C1" s="48"/>
+      <c r="D1" s="48"/>
+    </row>
+    <row r="2" spans="2:4" ht="18.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="23" t="s">
+      <c r="C2" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="22" t="s">
+      <c r="D2" s="15" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="2:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="45" t="s">
+    <row r="3" spans="2:4" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="38" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="17" t="s">
+      <c r="C3" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="18"/>
-    </row>
-    <row r="4" spans="2:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="45"/>
+      <c r="D3" s="12"/>
+    </row>
+    <row r="4" spans="2:4" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="38"/>
       <c r="C4" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="4"/>
-    </row>
-    <row r="5" spans="2:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="45"/>
+      <c r="D4" s="42"/>
+    </row>
+    <row r="5" spans="2:4" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="38"/>
       <c r="C5" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="4"/>
-    </row>
-    <row r="6" spans="2:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="45"/>
+      <c r="D5" s="42"/>
+    </row>
+    <row r="6" spans="2:4" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="38"/>
       <c r="C6" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="D6" s="4"/>
-    </row>
-    <row r="7" spans="2:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="45"/>
+      <c r="D6" s="42"/>
+    </row>
+    <row r="7" spans="2:4" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="38"/>
       <c r="C7" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D7" s="4"/>
-    </row>
-    <row r="8" spans="2:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="46"/>
+      <c r="D7" s="42"/>
+    </row>
+    <row r="8" spans="2:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="39"/>
       <c r="C8" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="9" spans="2:4" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="44" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="9" spans="2:4" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="7" t="s">
+      <c r="C9" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D9" s="8"/>
-    </row>
-    <row r="10" spans="2:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="45"/>
+      <c r="D9" s="43"/>
+    </row>
+    <row r="10" spans="2:4" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="38"/>
       <c r="C10" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D10" s="4"/>
-    </row>
-    <row r="11" spans="2:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="45"/>
-      <c r="C11" s="9" t="s">
+      <c r="D10" s="42"/>
+    </row>
+    <row r="11" spans="2:4" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="38"/>
+      <c r="C11" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="D11" s="44"/>
+    </row>
+    <row r="12" spans="2:4" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="38"/>
+      <c r="C12" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="D11" s="10"/>
-    </row>
-    <row r="12" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="45"/>
-      <c r="C12" s="11" t="s">
+      <c r="D12" s="44"/>
+    </row>
+    <row r="13" spans="2:4" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="38"/>
+      <c r="C13" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="D12" s="4"/>
-    </row>
-    <row r="13" spans="2:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="B13" s="46"/>
-      <c r="C13" s="12" t="s">
+      <c r="D13" s="42"/>
+    </row>
+    <row r="14" spans="2:4" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="39"/>
+      <c r="C14" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="D13" s="6"/>
-    </row>
-    <row r="14" spans="2:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="44" t="s">
+      <c r="D14" s="45"/>
+    </row>
+    <row r="15" spans="2:4" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="37" t="s">
         <v>13</v>
       </c>
-      <c r="C14" s="2" t="s">
+      <c r="C15" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D14" s="8"/>
-    </row>
-    <row r="15" spans="2:4" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="45"/>
-      <c r="C15" s="13" t="s">
+      <c r="D15" s="43"/>
+    </row>
+    <row r="16" spans="2:4" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="38"/>
+      <c r="C16" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="D15" s="14"/>
-    </row>
-    <row r="16" spans="2:4" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="46"/>
-      <c r="C16" s="15" t="s">
+      <c r="D16" s="12"/>
+    </row>
+    <row r="17" spans="2:4" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="39"/>
+      <c r="C17" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="D16" s="16"/>
-    </row>
-    <row r="17" spans="2:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="44" t="s">
+      <c r="D17" s="46"/>
+    </row>
+    <row r="18" spans="2:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="37" t="s">
         <v>19</v>
       </c>
-      <c r="C17" s="2" t="s">
+      <c r="C18" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="D17" s="8"/>
-    </row>
-    <row r="18" spans="2:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="45"/>
-      <c r="C18" s="17" t="s">
+      <c r="D18" s="43"/>
+    </row>
+    <row r="19" spans="2:4" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B19" s="38"/>
+      <c r="C19" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="D18" s="14"/>
-    </row>
-    <row r="19" spans="2:4" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="45"/>
-      <c r="C19" s="3" t="s">
+      <c r="D19" s="12"/>
+    </row>
+    <row r="20" spans="2:4" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="38"/>
+      <c r="C20" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D19" s="4"/>
-    </row>
-    <row r="20" spans="2:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="46"/>
-      <c r="C20" s="5" t="s">
+      <c r="D20" s="42"/>
+    </row>
+    <row r="21" spans="2:4" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B21" s="39"/>
+      <c r="C21" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="D20" s="6"/>
-    </row>
-    <row r="21" spans="2:4" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="44" t="s">
+      <c r="D21" s="45"/>
+    </row>
+    <row r="22" spans="2:4" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B22" s="37" t="s">
         <v>24</v>
       </c>
-      <c r="C21" s="2" t="s">
+      <c r="C22" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D21" s="8"/>
-    </row>
-    <row r="22" spans="2:4" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="45"/>
-      <c r="C22" s="1" t="s">
+      <c r="D22" s="43"/>
+    </row>
+    <row r="23" spans="2:4" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B23" s="38"/>
+      <c r="C23" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="24" spans="2:4" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B24" s="40"/>
+      <c r="C24" s="13" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="23" spans="2:4" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="47"/>
-      <c r="C23" s="19" t="s">
-        <v>27</v>
-      </c>
-      <c r="D23" s="20"/>
+      <c r="D24" s="47"/>
     </row>
   </sheetData>
-  <mergeCells count="5">
-    <mergeCell ref="B9:B13"/>
-    <mergeCell ref="B14:B16"/>
-    <mergeCell ref="B17:B20"/>
-    <mergeCell ref="B21:B23"/>
+  <mergeCells count="6">
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="B9:B14"/>
+    <mergeCell ref="B15:B17"/>
+    <mergeCell ref="B18:B21"/>
+    <mergeCell ref="B22:B24"/>
     <mergeCell ref="B3:B8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5053,219 +5253,671 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A114092-F9C6-4E08-8EC9-3F780F5486B6}">
+  <dimension ref="B1:I33"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="F26" sqref="F26:L35"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="31" customWidth="1"/>
+    <col min="4" max="6" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1" s="51" t="s">
+        <v>68</v>
+      </c>
+      <c r="C1" s="51"/>
+      <c r="D1" s="51"/>
+      <c r="E1" s="51"/>
+      <c r="F1" s="51"/>
+      <c r="G1" s="51"/>
+    </row>
+    <row r="2" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B2" s="53" t="s">
+        <v>65</v>
+      </c>
+      <c r="C2" s="54"/>
+      <c r="D2" s="54"/>
+      <c r="E2" s="54"/>
+      <c r="F2" s="54"/>
+      <c r="G2" s="54"/>
+    </row>
+    <row r="3" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B3" s="52" t="s">
+        <v>48</v>
+      </c>
+      <c r="C3" s="52" t="s">
+        <v>49</v>
+      </c>
+      <c r="D3" s="52" t="s">
+        <v>50</v>
+      </c>
+      <c r="E3" s="52" t="s">
+        <v>53</v>
+      </c>
+      <c r="F3" s="52" t="s">
+        <v>51</v>
+      </c>
+      <c r="G3" s="52" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="4" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B4" s="53" t="s">
+        <v>66</v>
+      </c>
+      <c r="C4" s="54"/>
+      <c r="D4" s="54"/>
+      <c r="E4" s="54"/>
+      <c r="F4" s="54"/>
+      <c r="G4" s="54"/>
+    </row>
+    <row r="5" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" s="49">
+        <v>164960</v>
+      </c>
+      <c r="D5" s="49">
+        <v>3.39</v>
+      </c>
+      <c r="E5" s="49">
+        <v>1.2130000000000001</v>
+      </c>
+      <c r="F5" s="49">
+        <v>1</v>
+      </c>
+      <c r="G5" s="49">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" s="49">
+        <v>164960</v>
+      </c>
+      <c r="D6" s="49">
+        <v>1.9890000000000001</v>
+      </c>
+      <c r="E6" s="49">
+        <v>0.89800000000000002</v>
+      </c>
+      <c r="F6" s="49">
+        <v>1</v>
+      </c>
+      <c r="G6" s="49">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>54</v>
+      </c>
+      <c r="C7" s="49">
+        <v>164960</v>
+      </c>
+      <c r="D7" s="49">
+        <v>3.28</v>
+      </c>
+      <c r="E7" s="49">
+        <v>1.772</v>
+      </c>
+      <c r="F7" s="49">
+        <v>1</v>
+      </c>
+      <c r="G7" s="49">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="8" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" s="49">
+        <v>164960</v>
+      </c>
+      <c r="D8" s="49">
+        <v>3.2919999999999998</v>
+      </c>
+      <c r="E8" s="49">
+        <v>1.7749999999999999</v>
+      </c>
+      <c r="F8" s="49">
+        <v>1</v>
+      </c>
+      <c r="G8" s="49">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="9" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>55</v>
+      </c>
+      <c r="C9" s="49">
+        <v>164960</v>
+      </c>
+      <c r="D9" s="50">
+        <v>465686.5</v>
+      </c>
+      <c r="E9" s="50">
+        <v>532024.69999999995</v>
+      </c>
+      <c r="F9" s="50">
+        <v>66.67</v>
+      </c>
+      <c r="G9" s="50">
+        <v>27993333</v>
+      </c>
+    </row>
+    <row r="10" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>45</v>
+      </c>
+      <c r="C10" s="49">
+        <v>164960</v>
+      </c>
+      <c r="D10" s="50">
+        <v>874544.5</v>
+      </c>
+      <c r="E10" s="50">
+        <v>1243141</v>
+      </c>
+      <c r="F10" s="50">
+        <v>2083.3330000000001</v>
+      </c>
+      <c r="G10" s="50">
+        <v>88833333</v>
+      </c>
+    </row>
+    <row r="11" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>56</v>
+      </c>
+      <c r="C11" s="49">
+        <v>164960</v>
+      </c>
+      <c r="D11" s="50">
+        <v>2116005</v>
+      </c>
+      <c r="E11" s="50">
+        <v>2528109</v>
+      </c>
+      <c r="F11" s="50">
+        <v>4000</v>
+      </c>
+      <c r="G11" s="50">
+        <v>85833333</v>
+      </c>
+    </row>
+    <row r="12" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>57</v>
+      </c>
+      <c r="C12" s="49">
+        <v>164960</v>
+      </c>
+      <c r="D12" s="49">
+        <v>49.612000000000002</v>
+      </c>
+      <c r="E12" s="49">
+        <v>16.39</v>
+      </c>
+      <c r="F12" s="49">
+        <v>11</v>
+      </c>
+      <c r="G12" s="49">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="13" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>58</v>
+      </c>
+      <c r="C13" s="49">
+        <v>88310</v>
+      </c>
+      <c r="D13" s="49">
+        <v>44.859000000000002</v>
+      </c>
+      <c r="E13" s="49">
+        <v>14.965999999999999</v>
+      </c>
+      <c r="F13" s="49">
+        <v>16</v>
+      </c>
+      <c r="G13" s="49">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="14" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
+        <v>59</v>
+      </c>
+      <c r="C14" s="49">
+        <v>162393</v>
+      </c>
+      <c r="D14" s="49">
+        <v>109.253</v>
+      </c>
+      <c r="E14" s="49">
+        <v>103.26300000000001</v>
+      </c>
+      <c r="F14" s="49">
+        <v>0</v>
+      </c>
+      <c r="G14" s="49">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="15" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
+        <v>60</v>
+      </c>
+      <c r="C15" s="49">
+        <v>117156</v>
+      </c>
+      <c r="D15" s="49">
+        <v>46.561</v>
+      </c>
+      <c r="E15" s="49">
+        <v>14.374000000000001</v>
+      </c>
+      <c r="F15" s="49">
+        <v>1</v>
+      </c>
+      <c r="G15" s="49">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="16" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
+        <v>61</v>
+      </c>
+      <c r="C16" s="49">
+        <v>142737</v>
+      </c>
+      <c r="D16" s="49">
+        <v>45.249000000000002</v>
+      </c>
+      <c r="E16" s="49">
+        <v>12.343</v>
+      </c>
+      <c r="F16" s="49">
+        <v>16</v>
+      </c>
+      <c r="G16" s="49">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
+        <v>62</v>
+      </c>
+      <c r="C17" s="49">
+        <v>142738</v>
+      </c>
+      <c r="D17" s="49">
+        <v>77.864999999999995</v>
+      </c>
+      <c r="E17" s="49">
+        <v>43.935000000000002</v>
+      </c>
+      <c r="F17" s="49">
+        <v>16</v>
+      </c>
+      <c r="G17" s="49">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
+        <v>63</v>
+      </c>
+      <c r="C18" s="49">
+        <v>164960</v>
+      </c>
+      <c r="D18" s="49">
+        <v>0.65</v>
+      </c>
+      <c r="E18" s="49">
+        <v>0.96399999999999997</v>
+      </c>
+      <c r="F18" s="49">
+        <v>0</v>
+      </c>
+      <c r="G18" s="49">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B19" t="s">
+        <v>64</v>
+      </c>
+      <c r="C19" s="49">
+        <v>164960</v>
+      </c>
+      <c r="D19" s="49">
+        <v>2.77</v>
+      </c>
+      <c r="E19" s="49">
+        <v>2.258</v>
+      </c>
+      <c r="F19" s="49">
+        <v>0</v>
+      </c>
+      <c r="G19" s="49">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B20" t="s">
+        <v>18</v>
+      </c>
+      <c r="C20" s="49">
+        <v>164960</v>
+      </c>
+      <c r="D20" s="49">
+        <v>12.632999999999999</v>
+      </c>
+      <c r="E20" s="49">
+        <v>13.875999999999999</v>
+      </c>
+      <c r="F20" s="49">
+        <v>0</v>
+      </c>
+      <c r="G20" s="49">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B21" t="s">
+        <v>27</v>
+      </c>
+      <c r="C21" s="49">
+        <v>164960</v>
+      </c>
+      <c r="D21" s="49">
+        <v>3.0880000000000001</v>
+      </c>
+      <c r="E21" s="49">
+        <v>1.611</v>
+      </c>
+      <c r="F21" s="49">
+        <v>1</v>
+      </c>
+      <c r="G21" s="49">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B22" s="53" t="s">
+        <v>67</v>
+      </c>
+      <c r="C22" s="53"/>
+      <c r="D22" s="53"/>
+      <c r="E22" s="53"/>
+      <c r="F22" s="53"/>
+      <c r="G22" s="53"/>
+    </row>
+    <row r="28" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="G28" s="55"/>
+      <c r="H28" s="55"/>
+    </row>
+    <row r="29" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="G29" s="56"/>
+      <c r="H29" s="55"/>
+      <c r="I29" s="61"/>
+    </row>
+    <row r="30" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="G30" s="57"/>
+      <c r="H30" s="55"/>
+      <c r="I30" s="61"/>
+    </row>
+    <row r="31" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="G31" s="58"/>
+      <c r="H31" s="55"/>
+    </row>
+    <row r="32" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="G32" s="59"/>
+      <c r="H32" s="55"/>
+    </row>
+    <row r="33" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G33" s="55"/>
+      <c r="H33" s="60"/>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="B2:G2"/>
+    <mergeCell ref="B4:G4"/>
+    <mergeCell ref="B1:G1"/>
+    <mergeCell ref="B22:G22"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39C00931-4D49-41FF-A219-83747CD8F8E4}">
   <dimension ref="B1:G11"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="4" width="11.42578125" style="24"/>
-    <col min="5" max="5" width="15.28515625" style="24" customWidth="1"/>
+    <col min="2" max="4" width="11.42578125" style="17"/>
+    <col min="5" max="5" width="15.28515625" style="17" customWidth="1"/>
     <col min="6" max="6" width="26.28515625" customWidth="1"/>
     <col min="7" max="7" width="13.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:7" ht="32.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="22" t="s">
+      <c r="B2" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="C2" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="D2" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="E2" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="F2" s="19" t="s">
+        <v>42</v>
+      </c>
+      <c r="G2" s="19" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="3" spans="2:7" s="14" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="20">
+        <v>1</v>
+      </c>
+      <c r="C3" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="D3" s="21">
+        <v>0.92500000000000004</v>
+      </c>
+      <c r="E3" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="F3" s="23" t="s">
+        <v>44</v>
+      </c>
+      <c r="G3" s="22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="2:7" s="14" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="27">
+        <v>2</v>
+      </c>
+      <c r="C4" s="28" t="s">
+        <v>28</v>
+      </c>
+      <c r="D4" s="28">
+        <v>0.95499999999999996</v>
+      </c>
+      <c r="E4" s="29" t="s">
         <v>41</v>
       </c>
-      <c r="C2" s="25" t="s">
-        <v>40</v>
-      </c>
-      <c r="D2" s="25" t="s">
-        <v>39</v>
-      </c>
-      <c r="E2" s="22" t="s">
-        <v>38</v>
-      </c>
-      <c r="F2" s="26" t="s">
-        <v>43</v>
-      </c>
-      <c r="G2" s="26" t="s">
+      <c r="F4" s="25" t="s">
+        <v>45</v>
+      </c>
+      <c r="G4" s="29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7" s="14" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="27">
+        <v>3</v>
+      </c>
+      <c r="C5" s="28" t="s">
+        <v>28</v>
+      </c>
+      <c r="D5" s="28">
+        <v>0.93700000000000006</v>
+      </c>
+      <c r="E5" s="29" t="s">
+        <v>30</v>
+      </c>
+      <c r="F5" s="24" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="3" spans="2:7" s="21" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="27">
-        <v>1</v>
-      </c>
-      <c r="C3" s="28" t="s">
-        <v>29</v>
-      </c>
-      <c r="D3" s="28">
-        <v>0.92500000000000004</v>
-      </c>
-      <c r="E3" s="29" t="s">
-        <v>30</v>
-      </c>
-      <c r="F3" s="30" t="s">
+      <c r="G5" s="29">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7" s="14" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="30">
+        <v>4</v>
+      </c>
+      <c r="C6" s="31" t="s">
+        <v>28</v>
+      </c>
+      <c r="D6" s="31">
+        <v>0.96399999999999997</v>
+      </c>
+      <c r="E6" s="32" t="s">
+        <v>31</v>
+      </c>
+      <c r="F6" s="36" t="s">
         <v>45</v>
       </c>
-      <c r="G3" s="29">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="2:7" s="21" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="34">
+      <c r="G6" s="32">
         <v>2</v>
       </c>
-      <c r="C4" s="35" t="s">
-        <v>29</v>
-      </c>
-      <c r="D4" s="35">
-        <v>0.95499999999999996</v>
-      </c>
-      <c r="E4" s="36" t="s">
-        <v>42</v>
-      </c>
-      <c r="F4" s="32" t="s">
-        <v>46</v>
-      </c>
-      <c r="G4" s="36">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="2:7" s="21" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="34">
+    </row>
+    <row r="7" spans="2:7" s="14" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="27">
+        <v>5</v>
+      </c>
+      <c r="C7" s="28" t="s">
+        <v>28</v>
+      </c>
+      <c r="D7" s="28">
+        <v>0.92900000000000005</v>
+      </c>
+      <c r="E7" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="F7" s="24" t="s">
+        <v>44</v>
+      </c>
+      <c r="G7" s="29">
         <v>3</v>
       </c>
-      <c r="C5" s="35" t="s">
-        <v>29</v>
-      </c>
-      <c r="D5" s="35">
-        <v>0.93700000000000006</v>
-      </c>
-      <c r="E5" s="36" t="s">
-        <v>31</v>
-      </c>
-      <c r="F5" s="31" t="s">
+    </row>
+    <row r="8" spans="2:7" s="14" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="27">
+        <v>6</v>
+      </c>
+      <c r="C8" s="28" t="s">
+        <v>28</v>
+      </c>
+      <c r="D8" s="28">
+        <v>0.95599999999999996</v>
+      </c>
+      <c r="E8" s="29" t="s">
+        <v>33</v>
+      </c>
+      <c r="F8" s="25" t="s">
         <v>45</v>
       </c>
-      <c r="G5" s="36">
+      <c r="G8" s="29">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="2:7" s="14" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="27">
+        <v>7</v>
+      </c>
+      <c r="C9" s="28" t="s">
+        <v>28</v>
+      </c>
+      <c r="D9" s="28">
+        <v>0.96199999999999997</v>
+      </c>
+      <c r="E9" s="29" t="s">
+        <v>34</v>
+      </c>
+      <c r="F9" s="25" t="s">
+        <v>45</v>
+      </c>
+      <c r="G9" s="29">
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="2:7" s="21" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="37">
-        <v>4</v>
-      </c>
-      <c r="C6" s="38" t="s">
-        <v>29</v>
-      </c>
-      <c r="D6" s="38">
-        <v>0.96399999999999997</v>
-      </c>
-      <c r="E6" s="39" t="s">
-        <v>32</v>
-      </c>
-      <c r="F6" s="43" t="s">
-        <v>46</v>
-      </c>
-      <c r="G6" s="39">
+    <row r="10" spans="2:7" s="14" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="27">
+        <v>8</v>
+      </c>
+      <c r="C10" s="28" t="s">
+        <v>28</v>
+      </c>
+      <c r="D10" s="28">
+        <v>0.875</v>
+      </c>
+      <c r="E10" s="29" t="s">
+        <v>35</v>
+      </c>
+      <c r="F10" s="25" t="s">
+        <v>45</v>
+      </c>
+      <c r="G10" s="29">
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="2:7" s="21" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="34">
-        <v>5</v>
-      </c>
-      <c r="C7" s="35" t="s">
-        <v>29</v>
-      </c>
-      <c r="D7" s="35">
-        <v>0.92900000000000005</v>
-      </c>
-      <c r="E7" s="36" t="s">
-        <v>33</v>
-      </c>
-      <c r="F7" s="31" t="s">
+    <row r="11" spans="2:7" s="14" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="33">
+        <v>9</v>
+      </c>
+      <c r="C11" s="34" t="s">
+        <v>28</v>
+      </c>
+      <c r="D11" s="34">
+        <v>0.96199999999999997</v>
+      </c>
+      <c r="E11" s="35" t="s">
+        <v>36</v>
+      </c>
+      <c r="F11" s="26" t="s">
         <v>45</v>
       </c>
-      <c r="G7" s="36">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="2:7" s="21" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="34">
-        <v>6</v>
-      </c>
-      <c r="C8" s="35" t="s">
-        <v>29</v>
-      </c>
-      <c r="D8" s="35">
-        <v>0.95599999999999996</v>
-      </c>
-      <c r="E8" s="36" t="s">
-        <v>34</v>
-      </c>
-      <c r="F8" s="32" t="s">
-        <v>46</v>
-      </c>
-      <c r="G8" s="36">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="2:7" s="21" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="34">
-        <v>7</v>
-      </c>
-      <c r="C9" s="35" t="s">
-        <v>29</v>
-      </c>
-      <c r="D9" s="35">
-        <v>0.96199999999999997</v>
-      </c>
-      <c r="E9" s="36" t="s">
-        <v>35</v>
-      </c>
-      <c r="F9" s="32" t="s">
-        <v>46</v>
-      </c>
-      <c r="G9" s="36">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="10" spans="2:7" s="21" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="34">
-        <v>8</v>
-      </c>
-      <c r="C10" s="35" t="s">
-        <v>29</v>
-      </c>
-      <c r="D10" s="35">
-        <v>0.875</v>
-      </c>
-      <c r="E10" s="36" t="s">
-        <v>36</v>
-      </c>
-      <c r="F10" s="32" t="s">
-        <v>46</v>
-      </c>
-      <c r="G10" s="36">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11" spans="2:7" s="21" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="40">
-        <v>9</v>
-      </c>
-      <c r="C11" s="41" t="s">
-        <v>29</v>
-      </c>
-      <c r="D11" s="41">
-        <v>0.96199999999999997</v>
-      </c>
-      <c r="E11" s="42" t="s">
-        <v>37</v>
-      </c>
-      <c r="F11" s="33" t="s">
-        <v>46</v>
-      </c>
-      <c r="G11" s="42">
+      <c r="G11" s="35">
         <v>2</v>
       </c>
     </row>
